--- a/tp1 vasquez.xlsx
+++ b/tp1 vasquez.xlsx
@@ -5,16 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PASCALITO 9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PASCALITO 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D995D3-EE18-4073-89BF-1549AB3D970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{226B95BD-9940-431D-AA18-B4F1C2F813D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="10710" xr2:uid="{A21FC7F3-C485-4CD4-A6F5-C8A26D38AC8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A21FC7F3-C485-4CD4-A6F5-C8A26D38AC8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="tp1" sheetId="1" r:id="rId1"/>
+    <sheet name="Adm" sheetId="2" r:id="rId2"/>
+    <sheet name="Mkt" sheetId="3" r:id="rId3"/>
+    <sheet name="Vta" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adm!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mkt!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vta!$D$2:$D$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="42">
   <si>
     <t>Empresa El Trebol S.A.</t>
   </si>
@@ -142,6 +150,15 @@
   </si>
   <si>
     <t>Vta</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Cantidad de empleados</t>
+  </si>
+  <si>
+    <t>El sueldo mas repetido</t>
   </si>
 </sst>
 </file>
@@ -150,9 +167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;\ #,##0.00;\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,16 +190,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -328,20 +377,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -350,17 +413,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,6 +427,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,31 +775,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B5A068-9363-4175-9310-F56EAF2A415E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="G1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -720,288 +816,1299 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="G2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="21">
+        <f>COUNTIF(D3:D18,"Mkt")</f>
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>27740</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14">
         <v>2500</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="G3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="21">
+        <f>COUNTIF(D3:D18,"Adm")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>25783</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>3600</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="G4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="21">
+        <f>COUNTIF(D3:D18,"Vta")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>23754</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>4500</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <f>MODE(E3:E18)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>29366</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>28736</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>3900</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>26952</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>25815</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="14">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>27742</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <v>4500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>36386</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="14">
         <v>7000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>27848</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="14">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>28761</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="14">
         <v>3600</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>29558</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="14">
         <v>8500</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>26450</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="14">
         <v>4500</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>28793</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14">
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>28066</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="14">
         <v>7800</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>27692</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="15">
         <v>9000</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10340227-43BA-434D-A997-AD0F7A77CAF2}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27740</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6">
+        <v>25783</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>23754</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6">
+        <v>29366</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6">
+        <v>28736</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>26952</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6">
+        <v>25815</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6">
+        <v>27742</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
+        <v>36386</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6">
+        <v>27848</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6">
+        <v>28761</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>29558</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="14">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6">
+        <v>26450</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6">
+        <v>28793</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6">
+        <v>28066</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="14">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <v>27692</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="15">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D2:D18" xr:uid="{10340227-43BA-434D-A997-AD0F7A77CAF2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Adm"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF53C07-C56D-4621-9788-AB1CD3B13626}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27740</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6">
+        <v>25783</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>23754</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6">
+        <v>29366</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6">
+        <v>28736</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>26952</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6">
+        <v>25815</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6">
+        <v>27742</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
+        <v>36386</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6">
+        <v>27848</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6">
+        <v>28761</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>29558</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="14">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6">
+        <v>26450</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6">
+        <v>28793</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6">
+        <v>28066</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="14">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <v>27692</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="15">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="D2:D18" xr:uid="{0FF53C07-C56D-4621-9788-AB1CD3B13626}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Mkt"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B0914F-CDC4-4300-AEBD-30FCA149DE1A}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27740</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6">
+        <v>25783</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>23754</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6">
+        <v>29366</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6">
+        <v>28736</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>26952</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6">
+        <v>25815</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6">
+        <v>27742</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
+        <v>36386</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6">
+        <v>27848</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6">
+        <v>28761</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>29558</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="14">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6">
+        <v>26450</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6">
+        <v>28793</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6">
+        <v>28066</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="14">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <v>27692</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="15">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D2:D18" xr:uid="{31B0914F-CDC4-4300-AEBD-30FCA149DE1A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Vta"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>